--- a/bilan_puissance.xlsx
+++ b/bilan_puissance.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/florianleon/Desktop/MOSH-project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User1\Documents\GitHub\MOSH-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A7BCBEF-5912-7B46-BC43-B0620C73DC46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9863255-FFD2-4C86-99E1-33E63AA2612D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1500" windowWidth="28040" windowHeight="17440" xr2:uid="{CC9193E0-D744-1E40-AEC5-7458FED430E6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{CC9193E0-D744-1E40-AEC5-7458FED430E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -94,12 +92,36 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -114,8 +136,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -430,74 +463,81 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE106C12-B592-B349-BBD4-13865DE01A93}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="182" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.83203125" customWidth="1"/>
-    <col min="2" max="2" width="21.83203125" customWidth="1"/>
+    <col min="1" max="1" width="23.875" customWidth="1"/>
+    <col min="2" max="2" width="21.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>119.76</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D2">
         <v>0.04</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D3">
         <v>0.22</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D4">
         <v>0.06</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>123</v>
       </c>
@@ -508,7 +548,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <f>A7/3600</f>
         <v>3.4166666666666665E-2</v>
@@ -528,7 +568,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <f>D2*A9</f>
         <v>1.3666666666666666E-3</v>
@@ -541,7 +581,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <f>A10*5</f>
         <v>6.8333333333333336E-3</v>
@@ -554,16 +594,17 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
         <f>(A11+B11)/2</f>
         <v>4.4861111111111109E-3</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C13" s="5"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <f>A13/D9</f>
         <v>0.52435064935064934</v>
